--- a/biology/Zoologie/Diaprioidea/Diaprioidea.xlsx
+++ b/biology/Zoologie/Diaprioidea/Diaprioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diaprioidea est une superfamille d'hyménoptères contenant cinq familles existantes[2],[3] bien que dans le passé ces familles aient été incluses dans la superfamille Proctotrupoidea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diaprioidea est une superfamille d'hyménoptères contenant cinq familles existantes, bien que dans le passé ces familles aient été incluses dans la superfamille Proctotrupoidea.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La super famille Diaprioidea eest décrite par Alexander Henry Haliday en 1833[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La super famille Diaprioidea eest décrite par Alexander Henry Haliday en 1833.
 </t>
         </is>
       </c>
@@ -542,15 +556,51 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Austroniidae
 Diapriidae Haliday 1833
 Ismaridae Thomson 1858
 Maamingidae Early, Masner, Naumann &amp; Austin, 2001
-Monomachidae Ashmead 1902
-Famille fossile
-†Spathiopterygidae Engel and Ortega-Blanco 2013</t>
+Monomachidae Ashmead 1902</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diaprioidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diaprioidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Familles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille fossile</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Spathiopterygidae Engel and Ortega-Blanco 2013</t>
         </is>
       </c>
     </row>
